--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Amputación extremidades inferiores (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Amputación extremidades inferiores (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22.25278131851556</v>
+        <v>22.3645970149253</v>
       </c>
       <c r="B2" t="n">
-        <v>14.60764021164021</v>
+        <v>14.808</v>
       </c>
       <c r="C2" t="n">
-        <v>30.50391587301586</v>
+        <v>30.19199999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.488346884624482</v>
+        <v>2.530228855721378</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9807619047619045</v>
+        <v>0.9559999999999998</v>
       </c>
       <c r="C3" t="n">
-        <v>4.387021428571422</v>
+        <v>4.359999999999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.417010613598668</v>
+        <v>4.446407960198998</v>
       </c>
       <c r="B4" t="n">
-        <v>1.982557671957673</v>
+        <v>1.956</v>
       </c>
       <c r="C4" t="n">
-        <v>7.344999999999996</v>
+        <v>7.280000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.356021310116079</v>
+        <v>3.380179104477605</v>
       </c>
       <c r="B5" t="n">
-        <v>1.389120116920119</v>
+        <v>1.388</v>
       </c>
       <c r="C5" t="n">
-        <v>5.889961111111109</v>
+        <v>5.888000000000004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.13771460159519</v>
+        <v>11.09305472636814</v>
       </c>
       <c r="B6" t="n">
-        <v>6.466841269841261</v>
+        <v>6.435999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>16.54840793650794</v>
+        <v>16.33599999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.71553366500828</v>
+        <v>17.76332338308457</v>
       </c>
       <c r="B7" t="n">
-        <v>11.13891111111112</v>
+        <v>11.36</v>
       </c>
       <c r="C7" t="n">
-        <v>25.83306825396827</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27.78537005448933</v>
+        <v>27.91032835820883</v>
       </c>
       <c r="B8" t="n">
-        <v>20.32368730158729</v>
+        <v>20.36800000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>35.29392063492061</v>
+        <v>35.37199999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.774696746426596</v>
+        <v>9.832099502487553</v>
       </c>
       <c r="B9" t="n">
-        <v>5.360695238095241</v>
+        <v>5.399999999999998</v>
       </c>
       <c r="C9" t="n">
-        <v>15.37231746031747</v>
+        <v>15.056</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30.09899276776277</v>
+        <v>30.03215920397993</v>
       </c>
       <c r="B10" t="n">
-        <v>21.86538712681656</v>
+        <v>22.38399999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>37.76144956709957</v>
+        <v>37.188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>27.21629485903808</v>
+        <v>27.09962189054717</v>
       </c>
       <c r="B11" t="n">
-        <v>18.83095873015873</v>
+        <v>18.764</v>
       </c>
       <c r="C11" t="n">
-        <v>35.61868333333331</v>
+        <v>35.40399999999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19.52476616915422</v>
+        <v>19.6647960199005</v>
       </c>
       <c r="B12" t="n">
-        <v>11.89178282828283</v>
+        <v>11.616</v>
       </c>
       <c r="C12" t="n">
-        <v>28.24533333333335</v>
+        <v>28.45999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>35.1903448067572</v>
+        <v>35.20533333333324</v>
       </c>
       <c r="B13" t="n">
-        <v>25.63740275465276</v>
+        <v>25.58399999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>45.09709392470277</v>
+        <v>44.60800000000003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30.93356271815508</v>
+        <v>30.95683582089534</v>
       </c>
       <c r="B14" t="n">
-        <v>22.17983378103377</v>
+        <v>22.02800000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>40.232015007215</v>
+        <v>40.37200000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.205808678828073</v>
+        <v>4.165532338308449</v>
       </c>
       <c r="B15" t="n">
-        <v>1.845612372812375</v>
+        <v>1.835999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>7.040630952380952</v>
+        <v>7.083999999999998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.16494499723603</v>
+        <v>11.00141293532337</v>
       </c>
       <c r="B16" t="n">
-        <v>6.48410158730158</v>
+        <v>6.328</v>
       </c>
       <c r="C16" t="n">
-        <v>16.13503333333333</v>
+        <v>16.224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19.4207990049751</v>
+        <v>19.44220895522386</v>
       </c>
       <c r="B17" t="n">
-        <v>12.2550380952381</v>
+        <v>12.364</v>
       </c>
       <c r="C17" t="n">
-        <v>28.01573333333333</v>
+        <v>28.10399999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.409945936981753</v>
+        <v>4.432278606965167</v>
       </c>
       <c r="B18" t="n">
-        <v>1.95074814814815</v>
+        <v>1.944</v>
       </c>
       <c r="C18" t="n">
-        <v>7.30433333333333</v>
+        <v>7.248000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30.98012463476263</v>
+        <v>30.89245771144274</v>
       </c>
       <c r="B19" t="n">
-        <v>21.07153015873017</v>
+        <v>21.096</v>
       </c>
       <c r="C19" t="n">
-        <v>40.80470476190477</v>
+        <v>40.90400000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.334918684356</v>
+        <v>13.22837810945273</v>
       </c>
       <c r="B20" t="n">
-        <v>7.833288888888886</v>
+        <v>7.756000000000005</v>
       </c>
       <c r="C20" t="n">
-        <v>20.49558333333333</v>
+        <v>20.128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.316374010897889</v>
+        <v>7.319223880597013</v>
       </c>
       <c r="B21" t="n">
-        <v>3.633704243904247</v>
+        <v>3.639999999999997</v>
       </c>
       <c r="C21" t="n">
-        <v>11.76046666666665</v>
+        <v>11.812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>32.77525763821574</v>
+        <v>32.73251741293522</v>
       </c>
       <c r="B22" t="n">
-        <v>23.77469583584058</v>
+        <v>24.04</v>
       </c>
       <c r="C22" t="n">
-        <v>41.53924286824287</v>
+        <v>41.584</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.643664676616911</v>
+        <v>4.681691542288546</v>
       </c>
       <c r="B23" t="n">
-        <v>1.975257953157953</v>
+        <v>1.952</v>
       </c>
       <c r="C23" t="n">
-        <v>7.808533333333337</v>
+        <v>7.768000000000004</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11.2027681039248</v>
+        <v>11.08803980099502</v>
       </c>
       <c r="B24" t="n">
-        <v>6.502334920634909</v>
+        <v>6.340000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>16.17746666666666</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8.215969201610987</v>
+        <v>8.188656716417899</v>
       </c>
       <c r="B25" t="n">
-        <v>4.719296777296775</v>
+        <v>4.684000000000003</v>
       </c>
       <c r="C25" t="n">
-        <v>12.90163333333333</v>
+        <v>12.784</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.323254205164654</v>
+        <v>7.302129353233826</v>
       </c>
       <c r="B26" t="n">
-        <v>3.795877019277019</v>
+        <v>3.891999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>11.35701428571428</v>
+        <v>11.368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>38.43669881149798</v>
+        <v>38.4543681592039</v>
       </c>
       <c r="B27" t="n">
-        <v>27.51829204869204</v>
+        <v>26.92000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>48.85563167388167</v>
+        <v>48.84000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20.13711422038433</v>
+        <v>20.09554228855719</v>
       </c>
       <c r="B28" t="n">
-        <v>12.90391216931218</v>
+        <v>12.96</v>
       </c>
       <c r="C28" t="n">
-        <v>27.35301904761908</v>
+        <v>26.996</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.980703150912091</v>
+        <v>4.971422885572127</v>
       </c>
       <c r="B29" t="n">
-        <v>2.084101058201056</v>
+        <v>2.104000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>8.032366666666674</v>
+        <v>8.176000000000005</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17.90540818526414</v>
+        <v>17.80356218905472</v>
       </c>
       <c r="B30" t="n">
-        <v>11.02516022126023</v>
+        <v>11.092</v>
       </c>
       <c r="C30" t="n">
-        <v>26.36842857142857</v>
+        <v>26.51199999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28.98596249703856</v>
+        <v>29.02171144278596</v>
       </c>
       <c r="B31" t="n">
-        <v>20.50238947718948</v>
+        <v>21.01999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>37.34661245421247</v>
+        <v>37.39600000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>28.41929070663985</v>
+        <v>28.21785074626855</v>
       </c>
       <c r="B32" t="n">
-        <v>20.5421746031746</v>
+        <v>20.09600000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>36.42798051948054</v>
+        <v>36.30000000000003</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31.07189207138889</v>
+        <v>31.10461691542272</v>
       </c>
       <c r="B33" t="n">
-        <v>22.28850044770043</v>
+        <v>22.21600000000002</v>
       </c>
       <c r="C33" t="n">
-        <v>40.82319278499276</v>
+        <v>41.05199999999997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>27.16320232172463</v>
+        <v>26.91713432835814</v>
       </c>
       <c r="B34" t="n">
-        <v>16.71133333333338</v>
+        <v>17.02399999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>36.38679999999997</v>
+        <v>36.48400000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12.02696958461659</v>
+        <v>12.01729353233831</v>
       </c>
       <c r="B35" t="n">
-        <v>6.864955555555548</v>
+        <v>6.812000000000003</v>
       </c>
       <c r="C35" t="n">
-        <v>18.36865555555554</v>
+        <v>18.44400000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17.69655854063018</v>
+        <v>17.73002985074625</v>
       </c>
       <c r="B36" t="n">
-        <v>11.13171111111111</v>
+        <v>11.42399999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>25.90940158730161</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8.112073300165825</v>
+        <v>8.230089552238793</v>
       </c>
       <c r="B37" t="n">
-        <v>4.225746464646461</v>
+        <v>4.256000000000002</v>
       </c>
       <c r="C37" t="n">
-        <v>13.10961428571428</v>
+        <v>13.068</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>34.53913115375492</v>
+        <v>34.37277611940294</v>
       </c>
       <c r="B38" t="n">
-        <v>25.58106693121695</v>
+        <v>25.32</v>
       </c>
       <c r="C38" t="n">
-        <v>44.44192894262602</v>
+        <v>43.84400000000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21.13899502487562</v>
+        <v>21.30614925373134</v>
       </c>
       <c r="B39" t="n">
-        <v>13.46840000000002</v>
+        <v>13.736</v>
       </c>
       <c r="C39" t="n">
-        <v>30.41900000000003</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.814313574982224</v>
+        <v>5.781990049751236</v>
       </c>
       <c r="B40" t="n">
-        <v>2.941035220335219</v>
+        <v>2.852</v>
       </c>
       <c r="C40" t="n">
-        <v>9.728973809523813</v>
+        <v>9.823999999999995</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15.72345221511489</v>
+        <v>15.63026865671641</v>
       </c>
       <c r="B41" t="n">
-        <v>10.37666349206351</v>
+        <v>10.32799999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>22.17966666666666</v>
+        <v>22.068</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>29.34891281686801</v>
+        <v>29.659303482587</v>
       </c>
       <c r="B42" t="n">
-        <v>19.87651000481</v>
+        <v>19.9</v>
       </c>
       <c r="C42" t="n">
-        <v>39.59351825396825</v>
+        <v>39.70800000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17.87695246387111</v>
+        <v>17.75420895522387</v>
       </c>
       <c r="B43" t="n">
-        <v>11.03693482443483</v>
+        <v>11.064</v>
       </c>
       <c r="C43" t="n">
-        <v>26.36842857142857</v>
+        <v>26.42799999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19.76391076759059</v>
+        <v>19.76847761194028</v>
       </c>
       <c r="B44" t="n">
-        <v>12.7719650793651</v>
+        <v>12.708</v>
       </c>
       <c r="C44" t="n">
-        <v>26.5329261904762</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>32.65114751243773</v>
+        <v>32.56483582089545</v>
       </c>
       <c r="B45" t="n">
-        <v>23.08735555555559</v>
+        <v>23.07599999999998</v>
       </c>
       <c r="C45" t="n">
-        <v>41.8140523809524</v>
+        <v>41.76799999999997</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>26.02840279554599</v>
+        <v>26.17456716417904</v>
       </c>
       <c r="B46" t="n">
-        <v>17.8713619047619</v>
+        <v>17.968</v>
       </c>
       <c r="C46" t="n">
-        <v>33.97844047619046</v>
+        <v>34.23599999999998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>34.82900960780505</v>
+        <v>34.68195024875612</v>
       </c>
       <c r="B47" t="n">
-        <v>25.19639485903961</v>
+        <v>24.96399999999998</v>
       </c>
       <c r="C47" t="n">
-        <v>43.30023600288604</v>
+        <v>43.56799999999998</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>19.50869452736317</v>
+        <v>19.66658706467662</v>
       </c>
       <c r="B48" t="n">
-        <v>11.99104314574315</v>
+        <v>11.592</v>
       </c>
       <c r="C48" t="n">
-        <v>28.2054</v>
+        <v>28.29199999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.9483913172234</v>
+        <v>4.957014925373131</v>
       </c>
       <c r="B49" t="n">
-        <v>2.405878066378068</v>
+        <v>2.547999999999998</v>
       </c>
       <c r="C49" t="n">
-        <v>8.07666984126984</v>
+        <v>8.036</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8.057512437810932</v>
+        <v>8.194547263681583</v>
       </c>
       <c r="B50" t="n">
-        <v>4.035213131313131</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>12.97490000000001</v>
+        <v>13.04399999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.490516038853338</v>
+        <v>2.518985074626852</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9775619047619047</v>
+        <v>0.9479999999999998</v>
       </c>
       <c r="C51" t="n">
-        <v>4.385569047619041</v>
+        <v>4.327999999999997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>23.31918395719809</v>
+        <v>23.25751243781087</v>
       </c>
       <c r="B52" t="n">
-        <v>16.36442063492063</v>
+        <v>16.29999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>30.20966428571428</v>
+        <v>30.17200000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20.85609751243781</v>
+        <v>20.9857910447761</v>
       </c>
       <c r="B53" t="n">
-        <v>13.35866666666669</v>
+        <v>13.492</v>
       </c>
       <c r="C53" t="n">
-        <v>29.68099999999999</v>
+        <v>29.824</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.194684300718621</v>
+        <v>4.166507462686559</v>
       </c>
       <c r="B54" t="n">
-        <v>1.875546475746477</v>
+        <v>1.839999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>7.044630952380952</v>
+        <v>7.083999999999998</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7.315398886519779</v>
+        <v>7.30947263681592</v>
       </c>
       <c r="B55" t="n">
-        <v>3.630904243904248</v>
+        <v>3.655999999999997</v>
       </c>
       <c r="C55" t="n">
-        <v>11.71551428571427</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28.621939113954</v>
+        <v>28.57586069651737</v>
       </c>
       <c r="B56" t="n">
-        <v>19.95678947718946</v>
+        <v>19.73200000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>36.94040476190472</v>
+        <v>36.74799999999996</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>28.40139020912741</v>
+        <v>28.21297512437799</v>
       </c>
       <c r="B57" t="n">
-        <v>20.5452773958068</v>
+        <v>20.11200000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>36.34993290043292</v>
+        <v>36.26400000000002</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.105277280265323</v>
+        <v>8.141810945273622</v>
       </c>
       <c r="B58" t="n">
-        <v>4.196190909090902</v>
+        <v>4.256000000000003</v>
       </c>
       <c r="C58" t="n">
-        <v>13.18861428571428</v>
+        <v>13.212</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>25.21399823501525</v>
+        <v>25.29745273631822</v>
       </c>
       <c r="B59" t="n">
-        <v>16.60983703703702</v>
+        <v>16.72000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>34.18403951048951</v>
+        <v>34.08399999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.632580099502484</v>
+        <v>4.718646766169143</v>
       </c>
       <c r="B60" t="n">
-        <v>1.953256613756615</v>
+        <v>2.008</v>
       </c>
       <c r="C60" t="n">
-        <v>7.704333333333331</v>
+        <v>7.683999999999998</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>32.89156349349916</v>
+        <v>33.07988059701481</v>
       </c>
       <c r="B61" t="n">
-        <v>22.88674601139601</v>
+        <v>22.86399999999998</v>
       </c>
       <c r="C61" t="n">
-        <v>43.23306989611697</v>
+        <v>43.15199999999998</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>27.25136948590374</v>
+        <v>27.09962189054717</v>
       </c>
       <c r="B62" t="n">
-        <v>18.83629206349207</v>
+        <v>18.764</v>
       </c>
       <c r="C62" t="n">
-        <v>35.67001666666664</v>
+        <v>35.40399999999998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>36.59708743188806</v>
+        <v>36.61056716417895</v>
       </c>
       <c r="B63" t="n">
-        <v>25.60444761904764</v>
+        <v>26.01599999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>46.11371587301587</v>
+        <v>46.188</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.713614925373129</v>
+        <v>4.824537313432824</v>
       </c>
       <c r="B64" t="n">
-        <v>1.979034391534392</v>
+        <v>2.048</v>
       </c>
       <c r="C64" t="n">
-        <v>8.131700000000009</v>
+        <v>7.968000000000003</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>25.93313597093892</v>
+        <v>25.83908457711442</v>
       </c>
       <c r="B65" t="n">
-        <v>18.53529985569985</v>
+        <v>18.624</v>
       </c>
       <c r="C65" t="n">
-        <v>33.34905238095237</v>
+        <v>33.21600000000002</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>25.75387604832963</v>
+        <v>25.8221293532337</v>
       </c>
       <c r="B66" t="n">
-        <v>16.6066666666667</v>
+        <v>16.69599999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>35.41178095238095</v>
+        <v>35.71600000000002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>23.9410543670535</v>
+        <v>23.97028855721383</v>
       </c>
       <c r="B67" t="n">
-        <v>15.8312380952381</v>
+        <v>16.104</v>
       </c>
       <c r="C67" t="n">
-        <v>34.2284753968254</v>
+        <v>34.49600000000002</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.585841127694846</v>
+        <v>6.586427860696502</v>
       </c>
       <c r="B68" t="n">
-        <v>3.49363396973397</v>
+        <v>3.531999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>10.74961349206349</v>
+        <v>10.704</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>34.9172555447868</v>
+        <v>34.9284776119402</v>
       </c>
       <c r="B69" t="n">
-        <v>25.3443615257063</v>
+        <v>25.17999999999998</v>
       </c>
       <c r="C69" t="n">
-        <v>44.32240173160177</v>
+        <v>44.97600000000002</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.865554371002123</v>
+        <v>5.844776119402974</v>
       </c>
       <c r="B70" t="n">
-        <v>2.929438095238093</v>
+        <v>2.924</v>
       </c>
       <c r="C70" t="n">
-        <v>9.612373809523806</v>
+        <v>9.555999999999994</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.98643864013267</v>
+        <v>11.04045771144278</v>
       </c>
       <c r="B71" t="n">
-        <v>6.402012698412694</v>
+        <v>6.383999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>16.86164285714287</v>
+        <v>16.964</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14.7596893074311</v>
+        <v>14.88131343283582</v>
       </c>
       <c r="B72" t="n">
-        <v>9.212295238095248</v>
+        <v>9.159999999999995</v>
       </c>
       <c r="C72" t="n">
-        <v>21.52681904761903</v>
+        <v>21.43999999999999</v>
       </c>
     </row>
   </sheetData>
